--- a/demoFile/demo.xlsx
+++ b/demoFile/demo.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wplay/selfCode/vegetable-price/demoFile/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99628AE-2E39-E14F-AF46-01307D855CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23115" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23120" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>收货单位：  文化路店</t>
   </si>
@@ -86,19 +92,64 @@
   </si>
   <si>
     <t>月2日</t>
+  </si>
+  <si>
+    <t>花卷</t>
+  </si>
+  <si>
+    <t>油</t>
+  </si>
+  <si>
+    <t>鸭血</t>
+  </si>
+  <si>
+    <t>河粉</t>
+  </si>
+  <si>
+    <t>炒面</t>
+  </si>
+  <si>
+    <t>红薯</t>
+  </si>
+  <si>
+    <t>铁棍山药</t>
+  </si>
+  <si>
+    <t>芹菜</t>
+  </si>
+  <si>
+    <t>花菜</t>
+  </si>
+  <si>
+    <t>土豆</t>
+  </si>
+  <si>
+    <t>黄豆芽</t>
+  </si>
+  <si>
+    <t>蒜苔</t>
+  </si>
+  <si>
+    <t>腐竹</t>
+  </si>
+  <si>
+    <t>豆腐</t>
+  </si>
+  <si>
+    <t>海带丝</t>
+  </si>
+  <si>
+    <t>鸡胸肉片</t>
+  </si>
+  <si>
+    <t>鸡腿块</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,345 +181,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -541,379 +268,87 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="49" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="49" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1163,37 +598,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:12">
-      <c r="A1" s="16"/>
-      <c r="B1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="18"/>
+    <row r="1" spans="1:12" ht="15">
+      <c r="A1" s="14"/>
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="19"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
-      <c r="L1" s="21"/>
-    </row>
-    <row r="2" ht="14.25" spans="1:12">
+      <c r="L1" s="17"/>
+    </row>
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1231,7 +666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:12">
+    <row r="3" spans="1:12" ht="16">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1271,11 +706,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:12">
+    <row r="4" spans="1:12" ht="16">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2">
@@ -1301,11 +738,13 @@
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" ht="14.25" spans="1:12">
+    <row r="5" spans="1:12" ht="15">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
@@ -1331,15 +770,17 @@
       </c>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" ht="14.25" spans="1:12">
+    <row r="6" spans="1:12" ht="15">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2">
-        <f t="shared" ref="E3:E21" si="0">C6*D6</f>
+        <f t="shared" ref="E6:E21" si="0">C6*D6</f>
         <v>0</v>
       </c>
       <c r="F6" s="2"/>
@@ -1350,16 +791,18 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2">
-        <f t="shared" ref="K3:K20" si="1">I6*J6</f>
+        <f t="shared" ref="K6:K20" si="1">I6*J6</f>
         <v>0</v>
       </c>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" ht="14.25" spans="1:12">
+    <row r="7" spans="1:12" ht="15">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2">
@@ -1379,11 +822,13 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" ht="14.25" spans="1:12">
+    <row r="8" spans="1:12" ht="16">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
@@ -1403,11 +848,13 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" ht="14.25" spans="1:12">
+    <row r="9" spans="1:12" ht="15">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2">
@@ -1427,11 +874,13 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" ht="14.25" spans="1:12">
+    <row r="10" spans="1:12" ht="16">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2">
@@ -1451,11 +900,13 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" ht="14.25" spans="1:12">
+    <row r="11" spans="1:12" ht="15">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2">
@@ -1475,11 +926,13 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" ht="14.25" spans="1:12">
+    <row r="12" spans="1:12" ht="15">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2">
@@ -1499,11 +952,13 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" ht="14.25" spans="1:12">
+    <row r="13" spans="1:12" ht="15">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2">
@@ -1523,11 +978,13 @@
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" ht="14.25" spans="1:12">
+    <row r="14" spans="1:12" ht="15">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2">
@@ -1547,11 +1004,13 @@
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" ht="14.25" spans="1:12">
+    <row r="15" spans="1:12" ht="15">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2">
@@ -1571,11 +1030,13 @@
       </c>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" ht="14.25" spans="1:12">
+    <row r="16" spans="1:12" ht="15">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2">
@@ -1595,11 +1056,13 @@
       </c>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" ht="14.25" spans="1:12">
+    <row r="17" spans="1:12" ht="15">
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2">
@@ -1619,11 +1082,13 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" ht="14.25" spans="1:12">
+    <row r="18" spans="1:12" ht="15">
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2">
@@ -1643,11 +1108,13 @@
       </c>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" ht="14.25" spans="1:12">
+    <row r="19" spans="1:12" ht="16">
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2">
@@ -1667,11 +1134,13 @@
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" ht="14.25" spans="1:12">
+    <row r="20" spans="1:12" ht="16">
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2">
@@ -1691,11 +1160,13 @@
       </c>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" ht="14.25" spans="1:12">
+    <row r="21" spans="1:12" ht="15">
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2">
@@ -1713,7 +1184,7 @@
       </c>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" ht="14.25" spans="1:12">
+    <row r="22" spans="1:12" ht="15">
       <c r="A22" s="2"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
@@ -1731,13 +1202,13 @@
         <f>E22+K21</f>
         <v>304.8</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="12" t="s">
         <v>14</v>
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" ht="14.25" spans="1:12">
+    <row r="23" spans="1:12" ht="15">
       <c r="A23" s="9"/>
       <c r="B23" s="10" t="s">
         <v>15</v>
@@ -1747,39 +1218,38 @@
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="20" t="s">
+      <c r="H23" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="14"/>
-      <c r="J23" s="20" t="s">
+      <c r="I23" s="7"/>
+      <c r="J23" s="15" t="s">
         <v>17</v>
       </c>
       <c r="K23" s="10"/>
-      <c r="L23" s="15"/>
+      <c r="L23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="H1:I1"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L4" sqref="A2:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:12">
+    <row r="1" spans="1:12" ht="15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1817,7 +1287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:12">
+    <row r="2" spans="1:12" ht="16">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1857,7 +1327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:12">
+    <row r="3" spans="1:12" ht="15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1887,7 +1357,7 @@
       </c>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" ht="14.25" spans="1:12">
+    <row r="4" spans="1:12" ht="15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1917,7 +1387,7 @@
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" ht="14.25" spans="1:12">
+    <row r="5" spans="1:12" ht="15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1941,7 +1411,7 @@
       </c>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" ht="14.25" spans="1:12">
+    <row r="6" spans="1:12" ht="15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1965,7 +1435,7 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" ht="14.25" spans="1:12">
+    <row r="7" spans="1:12" ht="15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1989,7 +1459,7 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" ht="14.25" spans="1:12">
+    <row r="8" spans="1:12" ht="15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2013,7 +1483,7 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" ht="14.25" spans="1:12">
+    <row r="9" spans="1:12" ht="15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2037,7 +1507,7 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" ht="14.25" spans="1:12">
+    <row r="10" spans="1:12" ht="15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2061,7 +1531,7 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" ht="14.25" spans="1:12">
+    <row r="11" spans="1:12" ht="15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2085,7 +1555,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" ht="14.25" spans="1:12">
+    <row r="12" spans="1:12" ht="15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2109,7 +1579,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" ht="14.25" spans="1:12">
+    <row r="13" spans="1:12" ht="15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2133,7 +1603,7 @@
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" ht="14.25" spans="1:12">
+    <row r="14" spans="1:12" ht="15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2157,7 +1627,7 @@
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" ht="14.25" spans="1:12">
+    <row r="15" spans="1:12" ht="15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2181,7 +1651,7 @@
       </c>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" ht="14.25" spans="1:12">
+    <row r="16" spans="1:12" ht="15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2205,7 +1675,7 @@
       </c>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" ht="14.25" spans="1:12">
+    <row r="17" spans="1:12" ht="15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2229,7 +1699,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" ht="14.25" spans="1:12">
+    <row r="18" spans="1:12" ht="15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2253,7 +1723,7 @@
       </c>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" ht="14.25" spans="1:12">
+    <row r="19" spans="1:12" ht="15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2277,7 +1747,7 @@
       </c>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" ht="14.25" spans="1:12">
+    <row r="20" spans="1:12" ht="15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2299,7 +1769,7 @@
       </c>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" ht="14.25" spans="1:12">
+    <row r="21" spans="1:12" ht="15">
       <c r="A21" s="2"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
@@ -2317,13 +1787,13 @@
         <f>E21+K20</f>
         <v>304.8</v>
       </c>
-      <c r="J21" s="13" t="s">
+      <c r="J21" s="12" t="s">
         <v>14</v>
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" ht="14.25" spans="1:12">
+    <row r="22" spans="1:12" ht="15">
       <c r="A22" s="9"/>
       <c r="B22" s="10" t="s">
         <v>15</v>
@@ -2333,36 +1803,33 @@
       <c r="E22" s="10"/>
       <c r="F22" s="11"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="14"/>
-      <c r="J22" s="12" t="s">
+      <c r="I22" s="7"/>
+      <c r="J22" s="10" t="s">
         <v>18</v>
       </c>
       <c r="K22" s="10"/>
-      <c r="L22" s="15"/>
+      <c r="L22" s="13"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>